--- a/new_MFC/template/sample.xlsx
+++ b/new_MFC/template/sample.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9435" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9435"/>
   </bookViews>
   <sheets>
     <sheet name="inputs" sheetId="2" r:id="rId1"/>
@@ -29,12 +29,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
-    <t xml:space="preserve">db_path </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ../db/EuroSegmentCar</t>
-  </si>
-  <si>
     <t>vehicle_id</t>
   </si>
   <si>
@@ -78,6 +72,12 @@
   </si>
   <si>
     <t>poldo</t>
+  </si>
+  <si>
+    <t>db_path</t>
+  </si>
+  <si>
+    <t>/db/EuroSegmentCar.csv</t>
   </si>
 </sst>
 </file>
@@ -397,8 +397,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -409,24 +409,24 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B1">
         <v>0.9</v>
       </c>
       <c r="C1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B2">
         <v>40</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -438,42 +438,42 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" customWidth="1"/>
     <col min="3" max="3" width="58.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>39393</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -498,7 +498,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B1">
         <v>0.3</v>
@@ -506,10 +506,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -522,23 +522,23 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:D22"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">

--- a/new_MFC/template/sample.xlsx
+++ b/new_MFC/template/sample.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9435" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="inputs" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>vehicle_id</t>
   </si>
@@ -59,12 +59,6 @@
     <t>tyre_radius</t>
   </si>
   <si>
-    <t>gear_box_radius</t>
-  </si>
-  <si>
-    <t>[3,2,1]</t>
-  </si>
-  <si>
     <t>pippo</t>
   </si>
   <si>
@@ -77,20 +71,133 @@
     <t>db_path</t>
   </si>
   <si>
-    <t>/db/EuroSegmentCar.csv</t>
+    <t>driver_style</t>
+  </si>
+  <si>
+    <t>The driving style as described in the TRR paper.</t>
+  </si>
+  <si>
+    <t>gear_box_ratios</t>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF666666"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>3.91</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF666666"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>2.16</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF666666"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1.35</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF666666"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.97</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF666666"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.77</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>]</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF666666"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -113,8 +220,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -395,10 +503,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -429,6 +537,17 @@
         <v>6</v>
       </c>
     </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -439,7 +558,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -451,10 +570,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -473,7 +589,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -486,8 +602,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -506,14 +622,15 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" t="s">
-        <v>11</v>
+        <v>16</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -535,10 +652,10 @@
         <v>8</v>
       </c>
       <c r="C1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">

--- a/new_MFC/template/sample.xlsx
+++ b/new_MFC/template/sample.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Apps\new_MFC\new_MFC\template\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9435" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="9435" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="inputs" sheetId="2" r:id="rId1"/>
@@ -17,9 +12,9 @@
     <sheet name="vehicle_inputs" sheetId="3" r:id="rId3"/>
     <sheet name="time_series" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -178,8 +173,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -283,7 +278,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -318,7 +313,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -495,27 +490,27 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="48.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -526,7 +521,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -537,7 +532,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -554,21 +549,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" customWidth="1"/>
     <col min="3" max="3" width="58.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -576,7 +571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -587,7 +582,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -599,20 +594,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="18.28515625" customWidth="1"/>
     <col min="2" max="2" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -620,7 +615,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -635,16 +630,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -658,7 +653,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>0</v>
       </c>
@@ -666,7 +661,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>1</v>
       </c>
@@ -674,7 +669,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>2</v>
       </c>
@@ -682,7 +677,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>3</v>
       </c>
@@ -690,7 +685,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>4</v>
       </c>
@@ -698,7 +693,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7">
         <v>5</v>
       </c>
@@ -706,7 +701,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8">
         <v>6</v>
       </c>
@@ -714,7 +709,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9">
         <v>7</v>
       </c>
@@ -722,7 +717,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10">
         <v>8</v>
       </c>
@@ -730,7 +725,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="A11">
         <v>9</v>
       </c>
@@ -738,7 +733,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="A12">
         <v>10</v>
       </c>
@@ -746,7 +741,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="A13">
         <v>11</v>
       </c>
@@ -754,7 +749,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4">
       <c r="A14">
         <v>12</v>
       </c>
@@ -762,7 +757,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4">
       <c r="A15">
         <v>13</v>
       </c>
@@ -770,7 +765,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4">
       <c r="A16">
         <v>14</v>
       </c>
@@ -778,7 +773,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2">
       <c r="A17">
         <v>15</v>
       </c>
@@ -786,7 +781,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2">
       <c r="A18">
         <v>16</v>
       </c>
@@ -794,7 +789,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2">
       <c r="A19">
         <v>17</v>
       </c>
@@ -802,7 +797,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2">
       <c r="A20">
         <v>18</v>
       </c>
@@ -810,7 +805,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2">
       <c r="A21">
         <v>19</v>
       </c>
@@ -818,7 +813,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2">
       <c r="A22">
         <v>20</v>
       </c>

--- a/new_MFC/template/sample.xlsx
+++ b/new_MFC/template/sample.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Apps\new_MFC\new_MFC\template\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="9435" activeTab="1"/>
   </bookViews>
@@ -13,8 +18,8 @@
     <sheet name="time_series" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -173,8 +178,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -490,27 +495,27 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="48.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -521,7 +526,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -532,7 +537,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -549,21 +554,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" customWidth="1"/>
     <col min="3" max="3" width="58.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -571,7 +576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -582,7 +587,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -594,20 +599,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.28515625" customWidth="1"/>
     <col min="2" max="2" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -615,7 +620,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -630,16 +635,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -653,7 +658,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -661,7 +666,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -669,7 +674,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -677,7 +682,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -685,7 +690,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -693,7 +698,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -701,7 +706,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -709,7 +714,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -717,7 +722,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -725,7 +730,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -733,7 +738,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -741,7 +746,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -749,7 +754,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -757,7 +762,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -765,7 +770,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -773,7 +778,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -781,7 +786,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -789,7 +794,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -797,7 +802,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
@@ -805,7 +810,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
@@ -813,7 +818,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
